--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:36:54+00:00</t>
+    <t>2022-01-10T10:51:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T10:51:56+00:00</t>
+    <t>2022-01-10T13:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T13:49:22+00:00</t>
+    <t>2022-01-10T14:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:20:15+00:00</t>
+    <t>2022-01-10T19:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:37:31+00:00</t>
+    <t>2022-01-10T19:38:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:38:49+00:00</t>
+    <t>2022-01-10T19:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T19:48:00+00:00</t>
+    <t>2022-01-11T09:25:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Medication</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t>Path</t>
@@ -371,7 +371,7 @@
     <t>Related medication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.com/fhir/example/StructureDefinition/DefinedMed)
+    <t xml:space="preserve">Reference(Medication)
 </t>
   </si>
   <si>

--- a/branches/alternative2/StructureDefinition-relatedMedication.xlsx
+++ b/branches/alternative2/StructureDefinition-relatedMedication.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T09:25:15+00:00</t>
+    <t>2022-01-11T09:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
